--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Anxa1-Fpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Anxa1-Fpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.404364</v>
+        <v>22.61022533333333</v>
       </c>
       <c r="H2">
-        <v>52.213092</v>
+        <v>67.830676</v>
       </c>
       <c r="I2">
-        <v>0.03673162149179448</v>
+        <v>0.04352672200082041</v>
       </c>
       <c r="J2">
-        <v>0.03917989134808628</v>
+        <v>0.04795217939334551</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.006255666666667</v>
+        <v>0.050657</v>
       </c>
       <c r="N2">
-        <v>3.018767</v>
+        <v>0.151971</v>
       </c>
       <c r="O2">
-        <v>0.03991953272530977</v>
+        <v>0.002123644810648064</v>
       </c>
       <c r="P2">
-        <v>0.03991953272530977</v>
+        <v>0.002123644810648064</v>
       </c>
       <c r="Q2">
-        <v>17.51323989972934</v>
+        <v>1.145366184710667</v>
       </c>
       <c r="R2">
-        <v>157.619159097564</v>
+        <v>10.308295662396</v>
       </c>
       <c r="S2">
-        <v>0.001466309166195382</v>
+        <v>9.243529730156317E-05</v>
       </c>
       <c r="T2">
-        <v>0.001564042954844011</v>
+        <v>0.0001018333969279432</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.404364</v>
+        <v>22.61022533333333</v>
       </c>
       <c r="H3">
-        <v>52.213092</v>
+        <v>67.830676</v>
       </c>
       <c r="I3">
-        <v>0.03673162149179448</v>
+        <v>0.04352672200082041</v>
       </c>
       <c r="J3">
-        <v>0.03917989134808628</v>
+        <v>0.04795217939334551</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.646551333333334</v>
+        <v>1.006255666666667</v>
       </c>
       <c r="N3">
-        <v>22.939654</v>
+        <v>3.018767</v>
       </c>
       <c r="O3">
-        <v>0.3033491053003704</v>
+        <v>0.0421842909114609</v>
       </c>
       <c r="P3">
-        <v>0.3033491053003704</v>
+        <v>0.0421842909114609</v>
       </c>
       <c r="Q3">
-        <v>133.0833627500187</v>
+        <v>22.75166736627689</v>
       </c>
       <c r="R3">
-        <v>1197.750264750168</v>
+        <v>204.765006296492</v>
       </c>
       <c r="S3">
-        <v>0.01114250451576771</v>
+        <v>0.001836143903304893</v>
       </c>
       <c r="T3">
-        <v>0.0118851849862077</v>
+        <v>0.002022828685367448</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.404364</v>
+        <v>22.61022533333333</v>
       </c>
       <c r="H4">
-        <v>52.213092</v>
+        <v>67.830676</v>
       </c>
       <c r="I4">
-        <v>0.03673162149179448</v>
+        <v>0.04352672200082041</v>
       </c>
       <c r="J4">
-        <v>0.03917989134808628</v>
+        <v>0.04795217939334551</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.55429333333333</v>
+        <v>18.813815</v>
       </c>
       <c r="N4">
-        <v>49.66287999999999</v>
+        <v>56.441445</v>
       </c>
       <c r="O4">
-        <v>0.6567313619743199</v>
+        <v>0.7887135162611822</v>
       </c>
       <c r="P4">
-        <v>0.6567313619743199</v>
+        <v>0.7887135162611822</v>
       </c>
       <c r="Q4">
-        <v>288.1169469361066</v>
+        <v>425.3845965296467</v>
       </c>
       <c r="R4">
-        <v>2593.05252242496</v>
+        <v>3828.46136876682</v>
       </c>
       <c r="S4">
-        <v>0.02412280780983139</v>
+        <v>0.03433011396059003</v>
       </c>
       <c r="T4">
-        <v>0.02573066340703457</v>
+        <v>0.03782053202171254</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>178.3379163333333</v>
+        <v>22.61022533333333</v>
       </c>
       <c r="H5">
-        <v>535.013749</v>
+        <v>67.830676</v>
       </c>
       <c r="I5">
-        <v>0.3763792138794219</v>
+        <v>0.04352672200082041</v>
       </c>
       <c r="J5">
-        <v>0.4014659877938717</v>
+        <v>0.04795217939334551</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.006255666666667</v>
+        <v>3.983073</v>
       </c>
       <c r="N5">
-        <v>3.018767</v>
+        <v>11.949219</v>
       </c>
       <c r="O5">
-        <v>0.03991953272530977</v>
+        <v>0.1669785480167087</v>
       </c>
       <c r="P5">
-        <v>0.03991953272530977</v>
+        <v>0.1669785480167088</v>
       </c>
       <c r="Q5">
-        <v>179.4535388919425</v>
+        <v>90.05817804911599</v>
       </c>
       <c r="R5">
-        <v>1615.081850027483</v>
+        <v>810.523602442044</v>
       </c>
       <c r="S5">
-        <v>0.01502488234558595</v>
+        <v>0.007268028839623924</v>
       </c>
       <c r="T5">
-        <v>0.01602633463783628</v>
+        <v>0.008006985289337576</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>178.3379163333333</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H6">
-        <v>535.013749</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I6">
-        <v>0.3763792138794219</v>
+        <v>0.3433165654922813</v>
       </c>
       <c r="J6">
-        <v>0.4014659877938717</v>
+        <v>0.3782223144872436</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>7.646551333333334</v>
+        <v>0.050657</v>
       </c>
       <c r="N6">
-        <v>22.939654</v>
+        <v>0.151971</v>
       </c>
       <c r="O6">
-        <v>0.3033491053003704</v>
+        <v>0.002123644810648064</v>
       </c>
       <c r="P6">
-        <v>0.3033491053003704</v>
+        <v>0.002123644810648064</v>
       </c>
       <c r="Q6">
-        <v>1363.670031922538</v>
+        <v>9.034063827697668</v>
       </c>
       <c r="R6">
-        <v>12273.03028730284</v>
+        <v>81.30657444927901</v>
       </c>
       <c r="S6">
-        <v>0.1141742977839794</v>
+        <v>0.0007290824427171994</v>
       </c>
       <c r="T6">
-        <v>0.1217843482058004</v>
+        <v>0.000803209855432135</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>178.3379163333333</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H7">
-        <v>535.013749</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I7">
-        <v>0.3763792138794219</v>
+        <v>0.3433165654922813</v>
       </c>
       <c r="J7">
-        <v>0.4014659877938717</v>
+        <v>0.3782223144872436</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,43 +868,43 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.55429333333333</v>
+        <v>1.006255666666667</v>
       </c>
       <c r="N7">
-        <v>49.66287999999999</v>
+        <v>3.018767</v>
       </c>
       <c r="O7">
-        <v>0.6567313619743199</v>
+        <v>0.0421842909114609</v>
       </c>
       <c r="P7">
-        <v>0.6567313619743199</v>
+        <v>0.0421842909114609</v>
       </c>
       <c r="Q7">
-        <v>2952.258179437457</v>
+        <v>179.4535388919426</v>
       </c>
       <c r="R7">
-        <v>26570.32361493712</v>
+        <v>1615.081850027483</v>
       </c>
       <c r="S7">
-        <v>0.2471800337498566</v>
+        <v>0.01448256587345001</v>
       </c>
       <c r="T7">
-        <v>0.2636553049502351</v>
+        <v>0.01595504014353594</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>86.61737833333332</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H8">
-        <v>259.852135</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I8">
-        <v>0.1828045400309692</v>
+        <v>0.3433165654922813</v>
       </c>
       <c r="J8">
-        <v>0.1949889965502952</v>
+        <v>0.3782223144872436</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,33 +930,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.006255666666667</v>
+        <v>18.813815</v>
       </c>
       <c r="N8">
-        <v>3.018767</v>
+        <v>56.441445</v>
       </c>
       <c r="O8">
-        <v>0.03991953272530977</v>
+        <v>0.7887135162611822</v>
       </c>
       <c r="P8">
-        <v>0.03991953272530977</v>
+        <v>0.7887135162611822</v>
       </c>
       <c r="Q8">
-        <v>87.1592277797272</v>
+        <v>3355.216565380812</v>
       </c>
       <c r="R8">
-        <v>784.4330500175449</v>
+        <v>30196.94908842731</v>
       </c>
       <c r="S8">
-        <v>0.007297471818101475</v>
+        <v>0.2707784155601297</v>
       </c>
       <c r="T8">
-        <v>0.007783869628864823</v>
+        <v>0.2983090515876766</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>86.61737833333332</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H9">
-        <v>259.852135</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I9">
-        <v>0.1828045400309692</v>
+        <v>0.3433165654922813</v>
       </c>
       <c r="J9">
-        <v>0.1949889965502952</v>
+        <v>0.3782223144872436</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.646551333333334</v>
+        <v>3.983073</v>
       </c>
       <c r="N9">
-        <v>22.939654</v>
+        <v>11.949219</v>
       </c>
       <c r="O9">
-        <v>0.3033491053003704</v>
+        <v>0.1669785480167087</v>
       </c>
       <c r="P9">
-        <v>0.3033491053003704</v>
+        <v>0.1669785480167088</v>
       </c>
       <c r="Q9">
-        <v>662.3242297845877</v>
+        <v>710.3329394235591</v>
       </c>
       <c r="R9">
-        <v>5960.91806806129</v>
+        <v>6392.996454812032</v>
       </c>
       <c r="S9">
-        <v>0.05545359366324026</v>
+        <v>0.05732650161598443</v>
       </c>
       <c r="T9">
-        <v>0.05914973764694906</v>
+        <v>0.06315501290059894</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>86.61737833333332</v>
+        <v>90.63663000000001</v>
       </c>
       <c r="H10">
-        <v>259.852135</v>
+        <v>271.90989</v>
       </c>
       <c r="I10">
-        <v>0.1828045400309692</v>
+        <v>0.174483683330882</v>
       </c>
       <c r="J10">
-        <v>0.1949889965502952</v>
+        <v>0.1922238225092264</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>16.55429333333333</v>
+        <v>0.050657</v>
       </c>
       <c r="N10">
-        <v>49.66287999999999</v>
+        <v>0.151971</v>
       </c>
       <c r="O10">
-        <v>0.6567313619743199</v>
+        <v>0.002123644810648064</v>
       </c>
       <c r="P10">
-        <v>0.6567313619743199</v>
+        <v>0.002123644810648064</v>
       </c>
       <c r="Q10">
-        <v>1433.889488694311</v>
+        <v>4.59137976591</v>
       </c>
       <c r="R10">
-        <v>12905.0053982488</v>
+        <v>41.32241789319</v>
       </c>
       <c r="S10">
-        <v>0.1200534745496275</v>
+        <v>0.0003705413686483877</v>
       </c>
       <c r="T10">
-        <v>0.1280553892744813</v>
+        <v>0.0004082151231546532</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>88.82503149999999</v>
+        <v>90.63663000000001</v>
       </c>
       <c r="H11">
-        <v>177.650063</v>
+        <v>271.90989</v>
       </c>
       <c r="I11">
-        <v>0.1874637554152924</v>
+        <v>0.174483683330882</v>
       </c>
       <c r="J11">
-        <v>0.1333058414989229</v>
+        <v>0.1922238225092264</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,27 +1122,27 @@
         <v>3.018767</v>
       </c>
       <c r="O11">
-        <v>0.03991953272530977</v>
+        <v>0.0421842909114609</v>
       </c>
       <c r="P11">
-        <v>0.03991953272530977</v>
+        <v>0.0421842909114609</v>
       </c>
       <c r="Q11">
-        <v>89.38069128872016</v>
+        <v>91.20362254507</v>
       </c>
       <c r="R11">
-        <v>536.284147732321</v>
+        <v>820.8326029056301</v>
       </c>
       <c r="S11">
-        <v>0.007483465519110234</v>
+        <v>0.007360470456933148</v>
       </c>
       <c r="T11">
-        <v>0.005321506902191212</v>
+        <v>0.008108825648842233</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1154,22 +1154,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>88.82503149999999</v>
+        <v>90.63663000000001</v>
       </c>
       <c r="H12">
-        <v>177.650063</v>
+        <v>271.90989</v>
       </c>
       <c r="I12">
-        <v>0.1874637554152924</v>
+        <v>0.174483683330882</v>
       </c>
       <c r="J12">
-        <v>0.1333058414989229</v>
+        <v>0.1922238225092264</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,33 +1178,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.646551333333334</v>
+        <v>18.813815</v>
       </c>
       <c r="N12">
-        <v>22.939654</v>
+        <v>56.441445</v>
       </c>
       <c r="O12">
-        <v>0.3033491053003704</v>
+        <v>0.7887135162611822</v>
       </c>
       <c r="P12">
-        <v>0.3033491053003704</v>
+        <v>0.7887135162611822</v>
       </c>
       <c r="Q12">
-        <v>679.2051630497003</v>
+        <v>1705.22078904345</v>
       </c>
       <c r="R12">
-        <v>4075.230978298202</v>
+        <v>15346.98710139105</v>
       </c>
       <c r="S12">
-        <v>0.05686696248147643</v>
+        <v>0.1376176394101026</v>
       </c>
       <c r="T12">
-        <v>0.04043820775001126</v>
+        <v>0.1516095269604174</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,22 +1216,22 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>88.82503149999999</v>
+        <v>90.63663000000001</v>
       </c>
       <c r="H13">
-        <v>177.650063</v>
+        <v>271.90989</v>
       </c>
       <c r="I13">
-        <v>0.1874637554152924</v>
+        <v>0.174483683330882</v>
       </c>
       <c r="J13">
-        <v>0.1333058414989229</v>
+        <v>0.1922238225092264</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.55429333333333</v>
+        <v>3.983073</v>
       </c>
       <c r="N13">
-        <v>49.66287999999999</v>
+        <v>11.949219</v>
       </c>
       <c r="O13">
-        <v>0.6567313619743199</v>
+        <v>0.1669785480167087</v>
       </c>
       <c r="P13">
-        <v>0.6567313619743199</v>
+        <v>0.1669785480167088</v>
       </c>
       <c r="Q13">
-        <v>1470.435626793573</v>
+        <v>361.01231376399</v>
       </c>
       <c r="R13">
-        <v>8822.613760761438</v>
+        <v>3249.11082387591</v>
       </c>
       <c r="S13">
-        <v>0.1231133274147058</v>
+        <v>0.02913503209519789</v>
       </c>
       <c r="T13">
-        <v>0.08754612684672047</v>
+        <v>0.03209725477681217</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>102.6404036666667</v>
+        <v>143.820236</v>
       </c>
       <c r="H14">
-        <v>307.921211</v>
+        <v>287.640472</v>
       </c>
       <c r="I14">
-        <v>0.2166208691825219</v>
+        <v>0.2768669192002915</v>
       </c>
       <c r="J14">
-        <v>0.231059282808824</v>
+        <v>0.2033443911738485</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>1.006255666666667</v>
+        <v>0.050657</v>
       </c>
       <c r="N14">
-        <v>3.018767</v>
+        <v>0.151971</v>
       </c>
       <c r="O14">
-        <v>0.03991953272530977</v>
+        <v>0.002123644810648064</v>
       </c>
       <c r="P14">
-        <v>0.03991953272530977</v>
+        <v>0.002123644810648064</v>
       </c>
       <c r="Q14">
-        <v>103.2824878185374</v>
+        <v>7.285501695052</v>
       </c>
       <c r="R14">
-        <v>929.5423903668369</v>
+        <v>43.713010170312</v>
       </c>
       <c r="S14">
-        <v>0.008647403876316731</v>
+        <v>0.0005879669961998159</v>
       </c>
       <c r="T14">
-        <v>0.009223778601573456</v>
+        <v>0.0004318312610907333</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,25 +1337,25 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>102.6404036666667</v>
+        <v>143.820236</v>
       </c>
       <c r="H15">
-        <v>307.921211</v>
+        <v>287.640472</v>
       </c>
       <c r="I15">
-        <v>0.2166208691825219</v>
+        <v>0.2768669192002915</v>
       </c>
       <c r="J15">
-        <v>0.231059282808824</v>
+        <v>0.2033443911738485</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,90 +1364,400 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.646551333333334</v>
+        <v>1.006255666666667</v>
       </c>
       <c r="N15">
-        <v>22.939654</v>
+        <v>3.018767</v>
       </c>
       <c r="O15">
-        <v>0.3033491053003704</v>
+        <v>0.0421842909114609</v>
       </c>
       <c r="P15">
-        <v>0.3033491053003704</v>
+        <v>0.0421842909114609</v>
       </c>
       <c r="Q15">
-        <v>784.8451155112216</v>
+        <v>144.7199274563373</v>
       </c>
       <c r="R15">
-        <v>7063.606039600993</v>
+        <v>868.3195647380239</v>
       </c>
       <c r="S15">
-        <v>0.0657117468559066</v>
+        <v>0.01167943466330503</v>
       </c>
       <c r="T15">
-        <v>0.07009162671140202</v>
+        <v>0.008577938952491527</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>143.820236</v>
+      </c>
+      <c r="H16">
+        <v>287.640472</v>
+      </c>
+      <c r="I16">
+        <v>0.2768669192002915</v>
+      </c>
+      <c r="J16">
+        <v>0.2033443911738485</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>18.813815</v>
+      </c>
+      <c r="N16">
+        <v>56.441445</v>
+      </c>
+      <c r="O16">
+        <v>0.7887135162611822</v>
+      </c>
+      <c r="P16">
+        <v>0.7887135162611822</v>
+      </c>
+      <c r="Q16">
+        <v>2705.80731336034</v>
+      </c>
+      <c r="R16">
+        <v>16234.84388016204</v>
+      </c>
+      <c r="S16">
+        <v>0.2183686813788625</v>
+      </c>
+      <c r="T16">
+        <v>0.1603804697747153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>143.820236</v>
+      </c>
+      <c r="H17">
+        <v>287.640472</v>
+      </c>
+      <c r="I17">
+        <v>0.2768669192002915</v>
+      </c>
+      <c r="J17">
+        <v>0.2033443911738485</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.983073</v>
+      </c>
+      <c r="N17">
+        <v>11.949219</v>
+      </c>
+      <c r="O17">
+        <v>0.1669785480167087</v>
+      </c>
+      <c r="P17">
+        <v>0.1669785480167088</v>
+      </c>
+      <c r="Q17">
+        <v>572.8464988652279</v>
+      </c>
+      <c r="R17">
+        <v>3437.078993191368</v>
+      </c>
+      <c r="S17">
+        <v>0.0462308361619241</v>
+      </c>
+      <c r="T17">
+        <v>0.03395415118555087</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>102.6404036666667</v>
-      </c>
-      <c r="H16">
-        <v>307.921211</v>
-      </c>
-      <c r="I16">
-        <v>0.2166208691825219</v>
-      </c>
-      <c r="J16">
-        <v>0.231059282808824</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>16.55429333333333</v>
-      </c>
-      <c r="N16">
-        <v>49.66287999999999</v>
-      </c>
-      <c r="O16">
-        <v>0.6567313619743199</v>
-      </c>
-      <c r="P16">
-        <v>0.6567313619743199</v>
-      </c>
-      <c r="Q16">
-        <v>1699.139350149742</v>
-      </c>
-      <c r="R16">
-        <v>15292.25415134768</v>
-      </c>
-      <c r="S16">
-        <v>0.1422617184502986</v>
-      </c>
-      <c r="T16">
-        <v>0.1517438774958486</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>84.051186</v>
+      </c>
+      <c r="H18">
+        <v>252.153558</v>
+      </c>
+      <c r="I18">
+        <v>0.1618061099757246</v>
+      </c>
+      <c r="J18">
+        <v>0.1782572924363359</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.050657</v>
+      </c>
+      <c r="N18">
+        <v>0.151971</v>
+      </c>
+      <c r="O18">
+        <v>0.002123644810648064</v>
+      </c>
+      <c r="P18">
+        <v>0.002123644810648064</v>
+      </c>
+      <c r="Q18">
+        <v>4.257780929202</v>
+      </c>
+      <c r="R18">
+        <v>38.320028362818</v>
+      </c>
+      <c r="S18">
+        <v>0.0003436187057810976</v>
+      </c>
+      <c r="T18">
+        <v>0.0003785551740425991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>84.051186</v>
+      </c>
+      <c r="H19">
+        <v>252.153558</v>
+      </c>
+      <c r="I19">
+        <v>0.1618061099757246</v>
+      </c>
+      <c r="J19">
+        <v>0.1782572924363359</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.006255666666667</v>
+      </c>
+      <c r="N19">
+        <v>3.018767</v>
+      </c>
+      <c r="O19">
+        <v>0.0421842909114609</v>
+      </c>
+      <c r="P19">
+        <v>0.0421842909114609</v>
+      </c>
+      <c r="Q19">
+        <v>84.57698220255401</v>
+      </c>
+      <c r="R19">
+        <v>761.192839822986</v>
+      </c>
+      <c r="S19">
+        <v>0.006825676014467804</v>
+      </c>
+      <c r="T19">
+        <v>0.007519657481223752</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>84.051186</v>
+      </c>
+      <c r="H20">
+        <v>252.153558</v>
+      </c>
+      <c r="I20">
+        <v>0.1618061099757246</v>
+      </c>
+      <c r="J20">
+        <v>0.1782572924363359</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>18.813815</v>
+      </c>
+      <c r="N20">
+        <v>56.441445</v>
+      </c>
+      <c r="O20">
+        <v>0.7887135162611822</v>
+      </c>
+      <c r="P20">
+        <v>0.7887135162611822</v>
+      </c>
+      <c r="Q20">
+        <v>1581.32346393459</v>
+      </c>
+      <c r="R20">
+        <v>14231.91117541131</v>
+      </c>
+      <c r="S20">
+        <v>0.1276186659514973</v>
+      </c>
+      <c r="T20">
+        <v>0.1405939359166603</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>84.051186</v>
+      </c>
+      <c r="H21">
+        <v>252.153558</v>
+      </c>
+      <c r="I21">
+        <v>0.1618061099757246</v>
+      </c>
+      <c r="J21">
+        <v>0.1782572924363359</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.983073</v>
+      </c>
+      <c r="N21">
+        <v>11.949219</v>
+      </c>
+      <c r="O21">
+        <v>0.1669785480167087</v>
+      </c>
+      <c r="P21">
+        <v>0.1669785480167088</v>
+      </c>
+      <c r="Q21">
+        <v>334.782009574578</v>
+      </c>
+      <c r="R21">
+        <v>3013.038086171202</v>
+      </c>
+      <c r="S21">
+        <v>0.02701814930397839</v>
+      </c>
+      <c r="T21">
+        <v>0.02976514386440921</v>
       </c>
     </row>
   </sheetData>
